--- a/results/mp/logistic/corona/confidence/126/masking-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/masking-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="73">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,39 +43,36 @@
     <t>crude</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
+    <t>war</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>died</t>
+    <t>collapse</t>
   </si>
   <si>
     <t>die</t>
   </si>
   <si>
-    <t>collapse</t>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>panic</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
@@ -91,144 +88,144 @@
     <t>lower</t>
   </si>
   <si>
+    <t>empty</t>
+  </si>
+  <si>
     <t>stop</t>
   </si>
   <si>
-    <t>empty</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
+    <t>oil</t>
+  </si>
+  <si>
     <t>of</t>
   </si>
   <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
     <t>the</t>
   </si>
   <si>
     <t>.</t>
   </si>
   <si>
+    <t>to</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>free</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>special</t>
   </si>
   <si>
     <t>safe</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>special</t>
+    <t>confidence</t>
   </si>
   <si>
     <t>won</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
     <t>nice</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>friends</t>
+    <t>relief</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
     <t>gt</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
     <t>help</t>
   </si>
   <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
     <t>helping</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>sure</t>
-  </si>
-  <si>
     <t>increase</t>
   </si>
   <si>
@@ -236,15 +233,6 @@
   </si>
   <si>
     <t>and</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>to</t>
   </si>
 </sst>
 </file>
@@ -602,7 +590,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q45"/>
+  <dimension ref="A1:Q43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -613,7 +601,7 @@
         <v>34</v>
       </c>
       <c r="J1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -671,13 +659,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8529411764705882</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C3">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -689,19 +677,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>35</v>
       </c>
       <c r="K3">
-        <v>0.9782608695652174</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L3">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="M3">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -713,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -721,13 +709,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8333333333333334</v>
+        <v>0.8116438356164384</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>237</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>237</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -739,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K4">
-        <v>0.9230769230769231</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L4">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -763,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -771,13 +759,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8275862068965517</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="C5">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -789,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K5">
-        <v>0.9152542372881356</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L5">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="M5">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -813,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -821,13 +809,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.797945205479452</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C6">
-        <v>233</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>233</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -839,19 +827,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K6">
-        <v>0.8833333333333333</v>
+        <v>0.9</v>
       </c>
       <c r="L6">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M6">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -863,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -871,13 +859,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7894736842105263</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C7">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D7">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -895,13 +883,13 @@
         <v>39</v>
       </c>
       <c r="K7">
-        <v>0.8660714285714286</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L7">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M7">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -913,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -921,13 +909,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7307692307692307</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -939,19 +927,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K8">
-        <v>0.8275862068965517</v>
+        <v>0.8224543080939948</v>
       </c>
       <c r="L8">
-        <v>48</v>
+        <v>315</v>
       </c>
       <c r="M8">
-        <v>48</v>
+        <v>315</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -963,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>10</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -971,13 +959,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7297297297297297</v>
+        <v>0.6486486486486487</v>
       </c>
       <c r="C9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -989,19 +977,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K9">
-        <v>0.814621409921671</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L9">
-        <v>312</v>
+        <v>27</v>
       </c>
       <c r="M9">
-        <v>312</v>
+        <v>27</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1013,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>71</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1021,13 +1009,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7</v>
+        <v>0.5686274509803921</v>
       </c>
       <c r="C10">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D10">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1039,19 +1027,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K10">
-        <v>0.8046875</v>
+        <v>0.8113207547169812</v>
       </c>
       <c r="L10">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="M10">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1063,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1071,13 +1059,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5396825396825397</v>
+        <v>0.5254237288135594</v>
       </c>
       <c r="C11">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="D11">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1089,19 +1077,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>87</v>
+        <v>28</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>43</v>
       </c>
       <c r="K11">
-        <v>0.795774647887324</v>
+        <v>0.8085106382978723</v>
       </c>
       <c r="L11">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="M11">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1113,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1121,13 +1109,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5294117647058824</v>
+        <v>0.5116279069767442</v>
       </c>
       <c r="C12">
-        <v>27</v>
+        <v>264</v>
       </c>
       <c r="D12">
-        <v>27</v>
+        <v>264</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1139,19 +1127,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>24</v>
+        <v>252</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>44</v>
       </c>
       <c r="K12">
-        <v>0.7875</v>
+        <v>0.796875</v>
       </c>
       <c r="L12">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="M12">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1163,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1171,13 +1159,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5254237288135594</v>
+        <v>0.5026455026455027</v>
       </c>
       <c r="C13">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="D13">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1189,19 +1177,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>45</v>
       </c>
       <c r="K13">
-        <v>0.7830188679245284</v>
+        <v>0.79375</v>
       </c>
       <c r="L13">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="M13">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1213,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1221,13 +1209,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5174418604651163</v>
+        <v>0.4697986577181208</v>
       </c>
       <c r="C14">
-        <v>267</v>
+        <v>70</v>
       </c>
       <c r="D14">
-        <v>267</v>
+        <v>70</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1239,19 +1227,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>249</v>
+        <v>79</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K14">
-        <v>0.7804878048780488</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L14">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="M14">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1263,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1271,13 +1259,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4832214765100671</v>
+        <v>0.4533333333333333</v>
       </c>
       <c r="C15">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="D15">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1289,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>47</v>
@@ -1324,10 +1312,10 @@
         <v>0.4</v>
       </c>
       <c r="C16">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D16">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1339,19 +1327,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>48</v>
       </c>
       <c r="K16">
-        <v>0.7692307692307693</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="L16">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="M16">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1363,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1371,13 +1359,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4</v>
+        <v>0.3916666666666667</v>
       </c>
       <c r="C17">
-        <v>22</v>
+        <v>141</v>
       </c>
       <c r="D17">
-        <v>22</v>
+        <v>141</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1389,19 +1377,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>33</v>
+        <v>219</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>49</v>
       </c>
       <c r="K17">
-        <v>0.7575757575757576</v>
+        <v>0.7560975609756098</v>
       </c>
       <c r="L17">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="M17">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1413,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1421,13 +1409,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3777777777777778</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="C18">
-        <v>136</v>
+        <v>20</v>
       </c>
       <c r="D18">
-        <v>136</v>
+        <v>20</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1439,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>224</v>
+        <v>36</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>50</v>
@@ -1471,13 +1459,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3392857142857143</v>
+        <v>0.2888888888888889</v>
       </c>
       <c r="C19">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D19">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1489,19 +1477,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K19">
-        <v>0.7446808510638298</v>
+        <v>0.7435897435897436</v>
       </c>
       <c r="L19">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M19">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1513,7 +1501,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1521,13 +1509,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.25</v>
+        <v>0.2182539682539683</v>
       </c>
       <c r="C20">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D20">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1539,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>52</v>
@@ -1571,13 +1559,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.2333333333333333</v>
+        <v>0.1420911528150134</v>
       </c>
       <c r="C21">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="D21">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1589,19 +1577,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>69</v>
+        <v>320</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>53</v>
       </c>
       <c r="K21">
-        <v>0.7301587301587301</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L21">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="M21">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1613,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1621,13 +1609,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.1447721179624665</v>
+        <v>0.07333333333333333</v>
       </c>
       <c r="C22">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="D22">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1639,19 +1627,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>319</v>
+        <v>278</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>54</v>
       </c>
       <c r="K22">
-        <v>0.7209302325581395</v>
+        <v>0.6976744186046512</v>
       </c>
       <c r="L22">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M22">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1663,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1671,37 +1659,37 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.0134964150147617</v>
+        <v>0.01264755480607083</v>
       </c>
       <c r="C23">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D23">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E23">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="F23">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
       </c>
       <c r="H23">
-        <v>2339</v>
+        <v>2342</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>55</v>
       </c>
       <c r="K23">
-        <v>0.7083333333333334</v>
+        <v>0.6875</v>
       </c>
       <c r="L23">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M23">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1713,7 +1701,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1721,37 +1709,37 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.009813084112149532</v>
+        <v>0.01160167579761521</v>
       </c>
       <c r="C24">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D24">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E24">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="F24">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
       </c>
       <c r="H24">
-        <v>2119</v>
+        <v>3067</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>56</v>
       </c>
       <c r="K24">
-        <v>0.6785714285714286</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="L24">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M24">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1763,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1771,37 +1759,37 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.009342783505154639</v>
+        <v>0.008886810102899906</v>
       </c>
       <c r="C25">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D25">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E25">
-        <v>0.09</v>
+        <v>0.21</v>
       </c>
       <c r="F25">
-        <v>0.91</v>
+        <v>0.79</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
       </c>
       <c r="H25">
-        <v>3075</v>
+        <v>2119</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>57</v>
       </c>
       <c r="K25">
-        <v>0.6529411764705882</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L25">
-        <v>222</v>
+        <v>42</v>
       </c>
       <c r="M25">
-        <v>222</v>
+        <v>42</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1813,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>118</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1821,37 +1809,37 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.009110629067245119</v>
+        <v>0.005055415127357573</v>
       </c>
       <c r="C26">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D26">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="E26">
-        <v>0.16</v>
+        <v>0.46</v>
       </c>
       <c r="F26">
-        <v>0.84</v>
+        <v>0.54</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
       </c>
       <c r="H26">
-        <v>2284</v>
+        <v>5117</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K26">
-        <v>0.6285714285714286</v>
+        <v>0.64</v>
       </c>
       <c r="L26">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="M26">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1863,7 +1851,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1871,37 +1859,37 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.005828638041577618</v>
+        <v>0.00482897384305835</v>
       </c>
       <c r="C27">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D27">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E27">
-        <v>0.38</v>
+        <v>0.52</v>
       </c>
       <c r="F27">
-        <v>0.62</v>
+        <v>0.48</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
       </c>
       <c r="H27">
-        <v>5117</v>
+        <v>4946</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>59</v>
       </c>
       <c r="K27">
-        <v>0.625</v>
+        <v>0.6352941176470588</v>
       </c>
       <c r="L27">
-        <v>25</v>
+        <v>216</v>
       </c>
       <c r="M27">
-        <v>25</v>
+        <v>216</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1913,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>15</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1921,37 +1909,37 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.005827974276527331</v>
+        <v>0.004651162790697674</v>
       </c>
       <c r="C28">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D28">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E28">
-        <v>0.41</v>
+        <v>0.58</v>
       </c>
       <c r="F28">
-        <v>0.5900000000000001</v>
+        <v>0.42</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
       </c>
       <c r="H28">
-        <v>4947</v>
+        <v>4280</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>60</v>
       </c>
       <c r="K28">
-        <v>0.5898305084745763</v>
+        <v>0.625</v>
       </c>
       <c r="L28">
-        <v>174</v>
+        <v>25</v>
       </c>
       <c r="M28">
-        <v>174</v>
+        <v>25</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1963,7 +1951,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>121</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1971,25 +1959,25 @@
         <v>61</v>
       </c>
       <c r="K29">
-        <v>0.5846153846153846</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L29">
+        <v>56</v>
+      </c>
+      <c r="M29">
+        <v>56</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
         <v>38</v>
-      </c>
-      <c r="M29">
-        <v>38</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1997,13 +1985,13 @@
         <v>62</v>
       </c>
       <c r="K30">
-        <v>0.58</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="L30">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="M30">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2015,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2023,13 +2011,13 @@
         <v>63</v>
       </c>
       <c r="K31">
-        <v>0.574468085106383</v>
+        <v>0.5728813559322034</v>
       </c>
       <c r="L31">
-        <v>54</v>
+        <v>169</v>
       </c>
       <c r="M31">
-        <v>54</v>
+        <v>169</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2041,7 +2029,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>40</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2049,13 +2037,13 @@
         <v>64</v>
       </c>
       <c r="K32">
-        <v>0.5690376569037657</v>
+        <v>0.5606694560669456</v>
       </c>
       <c r="L32">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="M32">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2067,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -2075,13 +2063,13 @@
         <v>65</v>
       </c>
       <c r="K33">
-        <v>0.5285714285714286</v>
+        <v>0.5571428571428572</v>
       </c>
       <c r="L33">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M33">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2093,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -2101,13 +2089,13 @@
         <v>66</v>
       </c>
       <c r="K34">
-        <v>0.5168539325842697</v>
+        <v>0.5076923076923077</v>
       </c>
       <c r="L34">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="M34">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2119,7 +2107,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -2127,13 +2115,13 @@
         <v>67</v>
       </c>
       <c r="K35">
-        <v>0.4313725490196079</v>
+        <v>0.4831460674157304</v>
       </c>
       <c r="L35">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="M35">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2145,7 +2133,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -2153,13 +2141,13 @@
         <v>68</v>
       </c>
       <c r="K36">
-        <v>0.3220338983050847</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="L36">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M36">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2171,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -2179,13 +2167,13 @@
         <v>69</v>
       </c>
       <c r="K37">
-        <v>0.3150684931506849</v>
+        <v>0.3013698630136986</v>
       </c>
       <c r="L37">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M37">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2197,7 +2185,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -2205,13 +2193,13 @@
         <v>70</v>
       </c>
       <c r="K38">
-        <v>0.296875</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="L38">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M38">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2223,7 +2211,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -2231,25 +2219,25 @@
         <v>71</v>
       </c>
       <c r="K39">
-        <v>0.2948717948717949</v>
+        <v>0.02921535893155259</v>
       </c>
       <c r="L39">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="M39">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="N39">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39">
-        <v>55</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -2257,155 +2245,103 @@
         <v>72</v>
       </c>
       <c r="K40">
-        <v>0.02847571189279732</v>
+        <v>0.00900562851782364</v>
       </c>
       <c r="L40">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="M40">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="N40">
-        <v>0.85</v>
+        <v>0.75</v>
       </c>
       <c r="O40">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>1160</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="K41">
-        <v>0.00974878140232471</v>
+        <v>0.006499535747446611</v>
       </c>
       <c r="L41">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M41">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="N41">
-        <v>0.8100000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="O41">
-        <v>0.1899999999999999</v>
+        <v>0.42</v>
       </c>
       <c r="P41" t="b">
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>2641</v>
+        <v>4280</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="K42">
-        <v>0.008779264214046822</v>
+        <v>0.005229283990345938</v>
       </c>
       <c r="L42">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M42">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="N42">
-        <v>0.91</v>
+        <v>0.52</v>
       </c>
       <c r="O42">
-        <v>0.08999999999999997</v>
+        <v>0.48</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>2371</v>
+        <v>4946</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="K43">
-        <v>0.005963590709353421</v>
+        <v>0.004280988519167153</v>
       </c>
       <c r="L43">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M43">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="N43">
-        <v>0.5600000000000001</v>
+        <v>0.46</v>
       </c>
       <c r="O43">
-        <v>0.4399999999999999</v>
+        <v>0.54</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>3167</v>
-      </c>
-    </row>
-    <row r="44" spans="10:17">
-      <c r="J44" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K44">
-        <v>0.005103224309904894</v>
-      </c>
-      <c r="L44">
-        <v>22</v>
-      </c>
-      <c r="M44">
-        <v>39</v>
-      </c>
-      <c r="N44">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="O44">
-        <v>0.4399999999999999</v>
-      </c>
-      <c r="P44" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q44">
-        <v>4289</v>
-      </c>
-    </row>
-    <row r="45" spans="10:17">
-      <c r="J45" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K45">
-        <v>0.004026575397624321</v>
-      </c>
-      <c r="L45">
-        <v>20</v>
-      </c>
-      <c r="M45">
-        <v>49</v>
-      </c>
-      <c r="N45">
-        <v>0.41</v>
-      </c>
-      <c r="O45">
-        <v>0.5900000000000001</v>
-      </c>
-      <c r="P45" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q45">
-        <v>4947</v>
+        <v>5117</v>
       </c>
     </row>
   </sheetData>
